--- a/3.Doc/Staff_import_template.xlsx
+++ b/3.Doc/Staff_import_template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Phan Anh\fcdc\3.Doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Phan Anh\FCDC_1.1\FCDC_Version1.1\3.Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -77,10 +77,10 @@
     <t>Lê Đức Huy</t>
   </si>
   <si>
-    <t>0236594779</t>
-  </si>
-  <si>
-    <t>0245656455</t>
+    <t>0275656455</t>
+  </si>
+  <si>
+    <t>0236794779</t>
   </si>
 </sst>
 </file>
@@ -415,7 +415,7 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -472,7 +472,7 @@
         <v>10</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>11</v>
@@ -498,7 +498,7 @@
         <v>14</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G3" t="s">
         <v>11</v>

--- a/3.Doc/Staff_import_template.xlsx
+++ b/3.Doc/Staff_import_template.xlsx
@@ -24,31 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
-  <si>
-    <t>STT</t>
-  </si>
-  <si>
-    <t>Họ và Tên</t>
-  </si>
-  <si>
-    <t>Giới Tính</t>
-  </si>
-  <si>
-    <t>Ngày Sinh</t>
-  </si>
-  <si>
-    <t>Email</t>
-  </si>
-  <si>
-    <t>SĐT</t>
-  </si>
-  <si>
-    <t>Phường,Xã</t>
-  </si>
-  <si>
-    <t>Tỉnh</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
   <si>
     <t>Nam</t>
   </si>
@@ -62,9 +38,6 @@
     <t>Mai Dịch</t>
   </si>
   <si>
-    <t>Hà Nội</t>
-  </si>
-  <si>
     <t>23/08/1999</t>
   </si>
   <si>
@@ -81,6 +54,9 @@
   </si>
   <si>
     <t>0236794779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trạm y tế Phường </t>
   </si>
 </sst>
 </file>
@@ -412,10 +388,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -430,87 +406,61 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
       <c r="H1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="G2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" t="s">
         <v>10</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H3" t="s">
-        <v>12</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1"/>
-    <hyperlink ref="E3" r:id="rId2"/>
+    <hyperlink ref="E1" r:id="rId1"/>
+    <hyperlink ref="E2" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/3.Doc/Staff_import_template.xlsx
+++ b/3.Doc/Staff_import_template.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Phan Anh\FCDC_1.1\FCDC_Version1.1\3.Doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project_FCDC\FCDC_Version1.1\3.Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{540400A6-B0F6-4A6B-A1F4-ED19773AD1F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12480"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,31 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
+  <si>
+    <t>STT</t>
+  </si>
+  <si>
+    <t>Họ và Tên</t>
+  </si>
+  <si>
+    <t>Giới Tính</t>
+  </si>
+  <si>
+    <t>Ngày Sinh</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>SĐT</t>
+  </si>
+  <si>
+    <t>Phường,Xã</t>
+  </si>
+  <si>
+    <t>Tỉnh</t>
+  </si>
   <si>
     <t>Nam</t>
   </si>
@@ -38,6 +63,9 @@
     <t>Mai Dịch</t>
   </si>
   <si>
+    <t>Hà Nội</t>
+  </si>
+  <si>
     <t>23/08/1999</t>
   </si>
   <si>
@@ -50,19 +78,16 @@
     <t>Lê Đức Huy</t>
   </si>
   <si>
-    <t>0275656455</t>
-  </si>
-  <si>
-    <t>0236794779</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trạm y tế Phường </t>
+    <t>1111111111</t>
+  </si>
+  <si>
+    <t>2222222222</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -387,11 +412,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -406,61 +431,87 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="C1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>3</v>
-      </c>
       <c r="H1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H2" t="s">
-        <v>10</v>
+      <c r="B3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E1" r:id="rId1"/>
-    <hyperlink ref="E2" r:id="rId2"/>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="E3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/3.Doc/Staff_import_template.xlsx
+++ b/3.Doc/Staff_import_template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project_FCDC\FCDC_Version1.1\3.Doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\GitHub\FCDC\FCDC_Version1.1\3.Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{540400A6-B0F6-4A6B-A1F4-ED19773AD1F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBF6E934-1306-4131-A0E8-1B3183866B59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="35775" yWindow="2010" windowWidth="21600" windowHeight="11325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>STT</t>
   </si>
@@ -39,9 +39,6 @@
     <t>Ngày Sinh</t>
   </si>
   <si>
-    <t>Email</t>
-  </si>
-  <si>
     <t>SĐT</t>
   </si>
   <si>
@@ -57,31 +54,16 @@
     <t>16/08/1999</t>
   </si>
   <si>
-    <t>anhpqhe130956@gmail.com</t>
-  </si>
-  <si>
-    <t>Mai Dịch</t>
-  </si>
-  <si>
-    <t>Hà Nội</t>
-  </si>
-  <si>
-    <t>23/08/1999</t>
-  </si>
-  <si>
-    <t>linh@gmail.com</t>
-  </si>
-  <si>
-    <t>Lưu Mạnh Tuấn</t>
-  </si>
-  <si>
-    <t>Lê Đức Huy</t>
-  </si>
-  <si>
-    <t>1111111111</t>
-  </si>
-  <si>
-    <t>2222222222</t>
+    <t>0355679554</t>
+  </si>
+  <si>
+    <t>Thanh Chương</t>
+  </si>
+  <si>
+    <t>Nghệ An</t>
+  </si>
+  <si>
+    <t>Nguyễn Đình Duẩn</t>
   </si>
 </sst>
 </file>
@@ -126,12 +108,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -413,24 +393,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="21.5703125" customWidth="1"/>
-    <col min="3" max="3" width="28.28515625" customWidth="1"/>
-    <col min="4" max="4" width="36.85546875" customWidth="1"/>
-    <col min="5" max="5" width="36.140625" customWidth="1"/>
-    <col min="6" max="6" width="32.42578125" customWidth="1"/>
+    <col min="2" max="2" width="21.5546875" customWidth="1"/>
+    <col min="3" max="3" width="28.33203125" customWidth="1"/>
+    <col min="4" max="4" width="36.88671875" customWidth="1"/>
+    <col min="5" max="5" width="36.109375" customWidth="1"/>
+    <col min="6" max="6" width="32.44140625" customWidth="1"/>
     <col min="7" max="7" width="31" customWidth="1"/>
-    <col min="8" max="8" width="34.7109375" customWidth="1"/>
+    <col min="8" max="8" width="34.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -452,67 +432,31 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" t="s">
         <v>11</v>
-      </c>
-      <c r="H2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H3" t="s">
-        <v>12</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="E3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>